--- a/MainTop/19.05.25/таня мес с 18.04.2025 по 18.05.2025/add/p1.xlsx
+++ b/MainTop/19.05.25/таня мес с 18.04.2025 по 18.05.2025/add/p1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,13 +513,58 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус и Дейзи утка</t>
+          <t>Термонаклейка Улыбающийся лисенок в снегу</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>8</v>
       </c>
       <c r="C6" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Термонаклейка Минни Маус и Дейзи утка</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лисёнок с розовыми щёчками</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лисёнок в свитере с узорами</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
